--- a/medicine/Mort/Tombeau_de_Clément_XIV/Tombeau_de_Clément_XIV.xlsx
+++ b/medicine/Mort/Tombeau_de_Clément_XIV/Tombeau_de_Clément_XIV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tombeau_de_Cl%C3%A9ment_XIV</t>
+          <t>Tombeau_de_Clément_XIV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tombeau de Clément XIV est un monument funéraire de marbre sculpté par Antonio Canova entre 1783 et 1787. Il se trouve dans la basilique des Saints-Apôtres à Rome.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tombeau_de_Cl%C3%A9ment_XIV</t>
+          <t>Tombeau_de_Clément_XIV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tombeau du pape Clément XIV est un monument en marbre de style néoclassique réalisé par le sculpteur vénitien Antonio Canova. Il se trouve dans la basilique des Saints-Apôtres de Rome, église dont Clément XIV (1705-1774) était le cardinal-prêtre avant d'être élu souverain pontife[1].
-Le monument a été commandé par le marchand Carlo Giorgi et achevé en 1787, treize ans après la mort du pape[2]. Les matériaux utilisés sont le marbre de Carrare et la lumachelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tombeau du pape Clément XIV est un monument en marbre de style néoclassique réalisé par le sculpteur vénitien Antonio Canova. Il se trouve dans la basilique des Saints-Apôtres de Rome, église dont Clément XIV (1705-1774) était le cardinal-prêtre avant d'être élu souverain pontife.
+Le monument a été commandé par le marchand Carlo Giorgi et achevé en 1787, treize ans après la mort du pape. Les matériaux utilisés sont le marbre de Carrare et la lumachelle.
 Une réplique en plâtre de ce tombeau est conservée à la Gipsoteca canoviana de Possagno.
 </t>
         </is>
